--- a/target/test-classes/Data/Book2.xlsx
+++ b/target/test-classes/Data/Book2.xlsx
@@ -68,10 +68,10 @@
     <t/>
   </si>
   <si>
-    <t>Shiyam282@gmail.com</t>
-  </si>
-  <si>
-    <t>Shiyam@282</t>
+    <t>Shiyam286@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiyam@286</t>
   </si>
 </sst>
 </file>

--- a/target/test-classes/Data/Book2.xlsx
+++ b/target/test-classes/Data/Book2.xlsx
@@ -68,10 +68,10 @@
     <t/>
   </si>
   <si>
-    <t>Shiyam286@gmail.com</t>
-  </si>
-  <si>
-    <t>Shiyam@286</t>
+    <t>Shiyam287@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiyam@287</t>
   </si>
 </sst>
 </file>
